--- a/Case2_全流程结果.xlsx
+++ b/Case2_全流程结果.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,30 +447,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>关键企业类型</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业入度</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业出度</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业初始排放e</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业净流出r</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业μ</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业η</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>关键企业α</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>初始补贴S</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>初始配额E</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Gamma</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>关键企业获补</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>关键企业决策排放(q)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>市场碳价</t>
         </is>
@@ -483,22 +523,48 @@
       <c r="B2" t="n">
         <v>28</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90.83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3391</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="K2" t="n">
         <v>100</v>
       </c>
-      <c r="D2" t="n">
+      <c r="L2" t="n">
         <v>2250</v>
       </c>
-      <c r="E2" t="n">
+      <c r="M2" t="n">
         <v>0.5636662769802215</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
         <v>56.36662769802216</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
         <v>29.74752971602975</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>-0.1560416119028042</v>
       </c>
     </row>
@@ -509,22 +575,48 @@
       <c r="B3" t="n">
         <v>23</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75.34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2722</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0863</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.399183927</v>
+      </c>
+      <c r="K3" t="n">
         <v>43.63337230197784</v>
       </c>
-      <c r="D3" t="n">
+      <c r="L3" t="n">
         <v>2129.42247028397</v>
       </c>
-      <c r="E3" t="n">
+      <c r="M3" t="n">
         <v>0.4785240757249175</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
         <v>20.87961915156516</v>
       </c>
-      <c r="G3" t="n">
+      <c r="O3" t="n">
         <v>71.8607583818858</v>
       </c>
-      <c r="H3" t="n">
+      <c r="P3" t="n">
         <v>-0.1464850821606757</v>
       </c>
     </row>
@@ -535,22 +627,48 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36.04</v>
+      </c>
+      <c r="G4" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3297</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1035</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.368545982</v>
+      </c>
+      <c r="K4" t="n">
         <v>22.75375315041268</v>
       </c>
-      <c r="D4" t="n">
+      <c r="L4" t="n">
         <v>2055.931711902084</v>
       </c>
-      <c r="E4" t="n">
+      <c r="M4" t="n">
         <v>0.4428538719162001</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>10.07658768328569</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
         <v>32.31083427466965</v>
       </c>
-      <c r="H4" t="n">
+      <c r="P4" t="n">
         <v>-0.1364986809561709</v>
       </c>
     </row>
@@ -561,22 +679,48 @@
       <c r="B5" t="n">
         <v>21</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>82.33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3025</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.337908036</v>
+      </c>
+      <c r="K5" t="n">
         <v>12.67716546712699</v>
       </c>
-      <c r="D5" t="n">
+      <c r="L5" t="n">
         <v>1981.020877627415</v>
       </c>
-      <c r="E5" t="n">
+      <c r="M5" t="n">
         <v>0.3605685349328664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
         <v>4.570986979583505</v>
       </c>
-      <c r="G5" t="n">
+      <c r="O5" t="n">
         <v>79.86764174105703</v>
       </c>
-      <c r="H5" t="n">
+      <c r="P5" t="n">
         <v>-0.1344408950463224</v>
       </c>
     </row>
@@ -587,22 +731,48 @@
       <c r="B6" t="n">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>55.43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.337908036</v>
+      </c>
+      <c r="K6" t="n">
         <v>8.106178487543485</v>
       </c>
-      <c r="D6" t="n">
+      <c r="L6" t="n">
         <v>1901.443235886358</v>
       </c>
-      <c r="E6" t="n">
+      <c r="M6" t="n">
         <v>0.3733540081835444</v>
       </c>
-      <c r="F6" t="n">
+      <c r="N6" t="n">
         <v>3.026474229375582</v>
       </c>
-      <c r="G6" t="n">
+      <c r="O6" t="n">
         <v>28.96194851159666</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
         <v>-0.1307742615290828</v>
       </c>
     </row>
@@ -613,22 +783,48 @@
       <c r="B7" t="n">
         <v>29</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>下游</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>46.14</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.337908036</v>
+      </c>
+      <c r="K7" t="n">
         <v>5.079704258167903</v>
       </c>
-      <c r="D7" t="n">
+      <c r="L7" t="n">
         <v>1817.051287374761</v>
       </c>
-      <c r="E7" t="n">
+      <c r="M7" t="n">
         <v>0.3602422621797305</v>
       </c>
-      <c r="F7" t="n">
+      <c r="N7" t="n">
         <v>1.829924153166415</v>
       </c>
-      <c r="G7" t="n">
+      <c r="O7" t="n">
         <v>31.97247496194156</v>
       </c>
-      <c r="H7" t="n">
+      <c r="P7" t="n">
         <v>-0.1286520498098367</v>
       </c>
     </row>
@@ -639,22 +835,48 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" t="n">
+        <v>111.33</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-43.967</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.2637</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K8" t="n">
         <v>3.249780105001487</v>
       </c>
-      <c r="D8" t="n">
+      <c r="L8" t="n">
         <v>1738.938812412819</v>
       </c>
-      <c r="E8" t="n">
+      <c r="M8" t="n">
         <v>0.3115293439406916</v>
       </c>
-      <c r="F8" t="n">
+      <c r="N8" t="n">
         <v>1.012401864062625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="O8" t="n">
         <v>109.324654437674</v>
       </c>
-      <c r="H8" t="n">
+      <c r="P8" t="n">
         <v>-0.1282726589688709</v>
       </c>
     </row>
@@ -665,22 +887,48 @@
       <c r="B9" t="n">
         <v>16</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>72.19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-12.87</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2934</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.237378240938862</v>
       </c>
-      <c r="D9" t="n">
+      <c r="L9" t="n">
         <v>1673.581157975145</v>
       </c>
-      <c r="E9" t="n">
+      <c r="M9" t="n">
         <v>0.3121360928623285</v>
       </c>
-      <c r="F9" t="n">
+      <c r="N9" t="n">
         <v>0.6983665023818458</v>
       </c>
-      <c r="G9" t="n">
+      <c r="O9" t="n">
         <v>70.03534945808164</v>
       </c>
-      <c r="H9" t="n">
+      <c r="P9" t="n">
         <v>-0.1278519303844766</v>
       </c>
     </row>
@@ -691,22 +939,48 @@
       <c r="B10" t="n">
         <v>25</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>72.28</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-15.29</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.2754</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K10" t="n">
         <v>1.539011738557016</v>
       </c>
-      <c r="D10" t="n">
+      <c r="L10" t="n">
         <v>1616.415808517064</v>
       </c>
-      <c r="E10" t="n">
+      <c r="M10" t="n">
         <v>0.3103570774400886</v>
       </c>
-      <c r="F10" t="n">
+      <c r="N10" t="n">
         <v>0.4776431853245452</v>
       </c>
-      <c r="G10" t="n">
+      <c r="O10" t="n">
         <v>70.23218952864734</v>
       </c>
-      <c r="H10" t="n">
+      <c r="P10" t="n">
         <v>-0.1275513664612374</v>
       </c>
     </row>
@@ -717,22 +991,48 @@
       <c r="B11" t="n">
         <v>26</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.2868</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.307091964</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.061368553232471</v>
       </c>
-      <c r="D11" t="n">
+      <c r="L11" t="n">
         <v>1561.473618988416</v>
       </c>
-      <c r="E11" t="n">
+      <c r="M11" t="n">
         <v>0.3094022816153831</v>
       </c>
-      <c r="F11" t="n">
+      <c r="N11" t="n">
         <v>0.3283898520049447</v>
       </c>
-      <c r="G11" t="n">
+      <c r="O11" t="n">
         <v>73.4575255652874</v>
       </c>
-      <c r="H11" t="n">
+      <c r="P11" t="n">
         <v>-0.1273442641158619</v>
       </c>
     </row>
@@ -743,22 +1043,48 @@
       <c r="B12" t="n">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>69.94</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2781</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.7329787012275263</v>
       </c>
-      <c r="D12" t="n">
+      <c r="L12" t="n">
         <v>1489.016093423129</v>
       </c>
-      <c r="E12" t="n">
+      <c r="M12" t="n">
         <v>0.2777001905749958</v>
       </c>
-      <c r="F12" t="n">
+      <c r="N12" t="n">
         <v>0.203548325018297</v>
       </c>
-      <c r="G12" t="n">
+      <c r="O12" t="n">
         <v>67.89893599618657</v>
       </c>
-      <c r="H12" t="n">
+      <c r="P12" t="n">
         <v>-0.1271985493796467</v>
       </c>
     </row>
@@ -769,22 +1095,48 @@
       <c r="B13" t="n">
         <v>18</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.2859</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.5294303762092293</v>
       </c>
-      <c r="D13" t="n">
+      <c r="L13" t="n">
         <v>1409.647157426942</v>
       </c>
-      <c r="E13" t="n">
+      <c r="M13" t="n">
         <v>0.2771957047303013</v>
       </c>
-      <c r="F13" t="n">
+      <c r="N13" t="n">
         <v>0.1467558262389459</v>
       </c>
-      <c r="G13" t="n">
+      <c r="O13" t="n">
         <v>74.49541170464335</v>
       </c>
-      <c r="H13" t="n">
+      <c r="P13" t="n">
         <v>-0.1270974679774043</v>
       </c>
     </row>
@@ -795,22 +1147,48 @@
       <c r="B14" t="n">
         <v>19</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>70.45999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-9.630000000000001</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2902</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.3826745499702834</v>
       </c>
-      <c r="D14" t="n">
+      <c r="L14" t="n">
         <v>1330.711745722299</v>
       </c>
-      <c r="E14" t="n">
+      <c r="M14" t="n">
         <v>0.2764175389091041</v>
       </c>
-      <c r="F14" t="n">
+      <c r="N14" t="n">
         <v>0.1057779573059347</v>
       </c>
-      <c r="G14" t="n">
+      <c r="O14" t="n">
         <v>68.36639745356518</v>
       </c>
-      <c r="H14" t="n">
+      <c r="P14" t="n">
         <v>-0.1270138670672538</v>
       </c>
     </row>
@@ -821,22 +1199,48 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>73.87</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.2768965926643487</v>
       </c>
-      <c r="D15" t="n">
+      <c r="L15" t="n">
         <v>1271.975348268734</v>
       </c>
-      <c r="E15" t="n">
+      <c r="M15" t="n">
         <v>0.2764540144515188</v>
       </c>
-      <c r="F15" t="n">
+      <c r="N15" t="n">
         <v>0.07654917463000617</v>
       </c>
-      <c r="G15" t="n">
+      <c r="O15" t="n">
         <v>71.78005795824947</v>
       </c>
-      <c r="H15" t="n">
+      <c r="P15" t="n">
         <v>-0.1269525927926625</v>
       </c>
     </row>
@@ -847,22 +1251,48 @@
       <c r="B16" t="n">
         <v>24</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>67.88</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-11.99</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1552</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.276454018</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.2003474180343425</v>
       </c>
-      <c r="D16" t="n">
+      <c r="L16" t="n">
         <v>1189.075290310484</v>
       </c>
-      <c r="E16" t="n">
+      <c r="M16" t="n">
         <v>0.2769227043517992</v>
       </c>
-      <c r="F16" t="n">
+      <c r="N16" t="n">
         <v>0.05548074881197054</v>
       </c>
-      <c r="G16" t="n">
+      <c r="O16" t="n">
         <v>65.63137325657358</v>
       </c>
-      <c r="H16" t="n">
+      <c r="P16" t="n">
         <v>-0.1269015376363183</v>
       </c>
     </row>
@@ -873,22 +1303,48 @@
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>8</v>
+      </c>
+      <c r="F17" t="n">
+        <v>110.17</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-55.697</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2465</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.245637945</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.144866669222372</v>
       </c>
-      <c r="D17" t="n">
+      <c r="L17" t="n">
         <v>1135.433917053911</v>
       </c>
-      <c r="E17" t="n">
+      <c r="M17" t="n">
         <v>0.2457103320163894</v>
       </c>
-      <c r="F17" t="n">
+      <c r="N17" t="n">
         <v>0.03559523739273748</v>
       </c>
-      <c r="G17" t="n">
+      <c r="O17" t="n">
         <v>108.3014598109102</v>
       </c>
-      <c r="H17" t="n">
+      <c r="P17" t="n">
         <v>-0.1268795663651547</v>
       </c>
     </row>
@@ -899,22 +1355,48 @@
       <c r="B18" t="n">
         <v>13</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>113.71</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-34.189</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.245637945</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.1092714318296345</v>
       </c>
-      <c r="D18" t="n">
+      <c r="L18" t="n">
         <v>1082.829457243001</v>
       </c>
-      <c r="E18" t="n">
+      <c r="M18" t="n">
         <v>0.2458923187897039</v>
       </c>
-      <c r="F18" t="n">
+      <c r="N18" t="n">
         <v>0.02686900575005988</v>
       </c>
-      <c r="G18" t="n">
+      <c r="O18" t="n">
         <v>111.8184857571902</v>
       </c>
-      <c r="H18" t="n">
+      <c r="P18" t="n">
         <v>-0.1268623040905628</v>
       </c>
     </row>
@@ -925,22 +1407,48 @@
       <c r="B19" t="n">
         <v>15</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上游</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-29.736</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.2556</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.245637945</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.08240242607957461</v>
       </c>
-      <c r="D19" t="n">
+      <c r="L19" t="n">
         <v>1005.19997148581</v>
       </c>
-      <c r="E19" t="n">
+      <c r="M19" t="n">
         <v>0.2457717780704316</v>
       </c>
-      <c r="F19" t="n">
+      <c r="N19" t="n">
         <v>0.02025219077489436</v>
       </c>
-      <c r="G19" t="n">
+      <c r="O19" t="n">
         <v>101.9667712423816</v>
       </c>
-      <c r="H19" t="n">
+      <c r="P19" t="n">
         <v>-0.1268469804064071</v>
       </c>
     </row>
@@ -951,22 +1459,48 @@
       <c r="B20" t="n">
         <v>20</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中游</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>67.94</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-7.36</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2841</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.1725</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.245637945</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.06215023530468026</v>
       </c>
-      <c r="D20" t="n">
+      <c r="L20" t="n">
         <v>932.9692002434289</v>
       </c>
-      <c r="E20" t="n">
+      <c r="M20" t="n">
         <v>0.2456378300218441</v>
       </c>
-      <c r="F20" t="n">
+      <c r="N20" t="n">
         <v>0.01526644893558866</v>
       </c>
-      <c r="G20" t="n">
+      <c r="O20" t="n">
         <v>65.8842349221508</v>
       </c>
-      <c r="H20" t="n">
+      <c r="P20" t="n">
         <v>-0.1268279372036037</v>
       </c>
     </row>
